--- a/Sheets/ScheduleData.xlsx
+++ b/Sheets/ScheduleData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tfdkg\UnityProject\Farm\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C55104-94BA-481C-95B1-9560EB25B93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D021791-9D44-4842-BB87-FD0F3A844CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{62B5C00F-698F-4EE8-88B3-1AC2C87E7411}"/>
+    <workbookView xWindow="-28800" yWindow="30" windowWidth="28770" windowHeight="15450" xr2:uid="{62B5C00F-698F-4EE8-88B3-1AC2C87E7411}"/>
   </bookViews>
   <sheets>
     <sheet name="Rand" sheetId="6" r:id="rId1"/>
@@ -64,17 +64,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>900 SeedShop 39 5 0/1030 SeedShop 2 20 3/1500 Mountain 46 23 2 abigail_flute/2000 SeedShop 1 9 3 abigail_sleep</t>
-  </si>
-  <si>
     <t>900 SeedShop 34 5 0/1100 SeedShop 9 17 3/1500 Saloon 42 17 2 abigail_sit_down/2100 SeedShop 1 9 3 abigail_sleep</t>
   </si>
   <si>
     <t>900 SeedShop 11 5 0 \"Strings\\schedules\\Abigail:spring_4.000\"/1230 Hospital 13 14 0 \"Strings\\schedules\\Abigail:spring_4.001\"/1330 Hospital 4 6 1 \"Strings\\schedules\\Abigail:spring_4.002\"/1600 SeedShop 10 5 0/2000 SeedShop 1 9 3 abigail_sleep</t>
+  </si>
+  <si>
+    <t>MiniVillagerWoman</t>
+  </si>
+  <si>
+    <t>900 FarmHouse 5 -5 0/1030 Farm 10 -13 0 death/1500 Mountain 46 23 2 abigail_flute/2000 SeedShop 1 9 3 abigail_sleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -614,17 +614,18 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A3:AL218"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A6" activeCellId="1" sqref="A5 A6"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="24.75" customWidth="1"/>
-    <col min="4" max="4" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="205.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="13.125" customWidth="1"/>
@@ -725,16 +726,16 @@
     <row r="5" spans="1:38">
       <c r="A5" s="12" t="str">
         <f>B5 &amp; "_" &amp; C5</f>
-        <v>Rand_3</v>
+        <v>MiniVillagerWoman_3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" s="12">
         <v>3</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -746,16 +747,16 @@
     <row r="6" spans="1:38">
       <c r="A6" s="12" t="str">
         <f t="shared" ref="A6:A7" si="0">B6 &amp; "_" &amp; C6</f>
-        <v>Rand_5</v>
+        <v>MiniVillagerWoman_5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" s="12">
         <v>5</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -767,16 +768,16 @@
     <row r="7" spans="1:38">
       <c r="A7" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Rand_spring_4</v>
+        <v>MiniVillagerWoman_spring_4</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
